--- a/data/trans_orig/P14A28-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A28-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D7388D-7FBF-4040-87F8-1C1D671AD74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73291536-6389-4B12-B114-7407C48FFF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1382DB7B-DDAA-4DFE-A5DB-7543D3300837}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8D71364-726B-4B13-8C87-FC17FBD858FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
   <si>
     <t>Población que recibe medicación o terapia por artritis en 2012 (Tasa respuesta: 8,62%)</t>
   </si>
@@ -75,445 +75,439 @@
     <t>71,94%</t>
   </si>
   <si>
-    <t>62,5%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por artritis en 2015 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>79,51%</t>
   </si>
   <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por artritis en 2015 (Tasa respuesta: 6,27%)</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0AA08C-6426-4323-8EC8-61F1456D8ABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077F841C-2C2C-4076-AA51-7A86E65BEFDB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6013D666-E598-4333-9540-31EFB8FEFDA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E9AE18-FFB2-4BDD-BFF9-E7BC02DA98BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1800,13 +1794,13 @@
         <v>48145</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>164</v>
@@ -1815,13 +1809,13 @@
         <v>189031</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>215</v>
@@ -1830,13 +1824,13 @@
         <v>237175</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1845,13 @@
         <v>12409</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -1866,13 +1860,13 @@
         <v>19432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -1881,13 +1875,13 @@
         <v>31841</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1949,13 @@
         <v>33962</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -1970,13 +1964,13 @@
         <v>78073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -1985,13 +1979,13 @@
         <v>112035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2000,13 @@
         <v>15980</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -2021,13 +2015,13 @@
         <v>27620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -2036,10 +2030,10 @@
         <v>43601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>122</v>
@@ -2295,13 +2289,13 @@
         <v>362276</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2310,13 @@
         <v>33301</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -2331,13 +2325,13 @@
         <v>55388</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -2346,13 +2340,13 @@
         <v>88690</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A28-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A28-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73291536-6389-4B12-B114-7407C48FFF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBF23CE-42C7-4C26-8559-F124860EC0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8D71364-726B-4B13-8C87-FC17FBD858FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08B37CC9-8EA9-4BE9-9DE0-403FCA9056CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población que recibe medicación o terapia por artritis en 2012 (Tasa respuesta: 8,62%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>71,94%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>28,06%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>91,93%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>90,13%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,319 +195,325 @@
     <t>56,83%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>54,83%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>55,5%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>43,17%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>45,17%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por artritis en 2016 (Tasa respuesta: 6,27%)</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por artritis en 2015 (Tasa respuesta: 6,27%)</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077F841C-2C2C-4076-AA51-7A86E65BEFDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1656F832-74B5-4CF4-AE64-16D02186C719}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1670,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E9AE18-FFB2-4BDD-BFF9-E7BC02DA98BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FA67BE-9830-435C-982B-5632AC4F18E3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1815,7 +1821,7 @@
         <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="M4" s="7">
         <v>215</v>
@@ -1824,13 +1830,13 @@
         <v>237175</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1851,13 @@
         <v>12409</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -1860,13 +1866,13 @@
         <v>19432</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -1875,13 +1881,13 @@
         <v>31841</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1955,13 @@
         <v>33962</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -1964,13 +1970,13 @@
         <v>78073</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -1979,13 +1985,13 @@
         <v>112035</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2006,13 @@
         <v>15980</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -2015,13 +2021,13 @@
         <v>27620</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -2030,10 +2036,10 @@
         <v>43601</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>122</v>
@@ -2289,13 +2295,13 @@
         <v>362276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2316,13 @@
         <v>33301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -2325,13 +2331,13 @@
         <v>55388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -2340,13 +2346,13 @@
         <v>88690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
